--- a/results/metric_df/CMA_metrics.xlsx
+++ b/results/metric_df/CMA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -498,30 +508,36 @@
         <v>2.474712211238133</v>
       </c>
       <c r="D2" t="n">
+        <v>4.949424422476267</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.567820726955968</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.2036036937027037</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.43</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>8.504999999999999</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(a1-1)']</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -540,30 +556,36 @@
         <v>2.257583713723263</v>
       </c>
       <c r="D3" t="n">
+        <v>6.77275114116979</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.595682138220825</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.9916584251017696</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.4466666666666667</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>8.359999999999999</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['1C4', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -582,30 +604,36 @@
         <v>2.069150257718639</v>
       </c>
       <c r="D4" t="n">
+        <v>4.138300515437278</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.099872183108412</v>
+      </c>
+      <c r="F4" t="n">
         <v>8.45345</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.4415</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>4.46</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -624,30 +652,36 @@
         <v>2.080068376542343</v>
       </c>
       <c r="D5" t="n">
+        <v>4.160136753084686</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.082825921934366</v>
+      </c>
+      <c r="F5" t="n">
         <v>3.212175</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.4595</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>6.335000000000001</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -666,30 +700,36 @@
         <v>2.110932973147702</v>
       </c>
       <c r="D6" t="n">
+        <v>4.221865946295405</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.12907997324471</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.6707829217078293</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.4715</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>4.949999999999999</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -708,30 +748,36 @@
         <v>2.055265185151331</v>
       </c>
       <c r="D7" t="n">
+        <v>4.110530370302661</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.062239079820679</v>
+      </c>
+      <c r="F7" t="n">
         <v>11.004025</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.4555</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>6.56</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -750,30 +796,36 @@
         <v>1.803202418091576</v>
       </c>
       <c r="D8" t="n">
+        <v>3.606404836183152</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.934499862432555</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.11209</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.484</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>5.630000000000001</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -792,30 +844,36 @@
         <v>1.79066229872057</v>
       </c>
       <c r="D9" t="n">
+        <v>3.581324597441141</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.910583370180939</v>
+      </c>
+      <c r="F9" t="n">
         <v>2.343815631563157</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.462</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>6.855</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -834,30 +892,36 @@
         <v>1.805488031111758</v>
       </c>
       <c r="D10" t="n">
+        <v>3.610976062223516</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.963481983080236</v>
+      </c>
+      <c r="F10" t="n">
         <v>9.156089946560899</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.4625</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>4.71</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -876,30 +940,36 @@
         <v>2.173393805100897</v>
       </c>
       <c r="D11" t="n">
+        <v>4.346787610201794</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.273759042726899</v>
+      </c>
+      <c r="F11" t="n">
         <v>1.687681231876812</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.4395</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>4.775</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -918,30 +988,36 @@
         <v>2.144343003119466</v>
       </c>
       <c r="D12" t="n">
+        <v>4.288686006238931</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.279235744717413</v>
+      </c>
+      <c r="F12" t="n">
         <v>15.32095709570957</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>0.473</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>5.055000000000001</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -960,30 +1036,36 @@
         <v>1.91104251702973</v>
       </c>
       <c r="D13" t="n">
+        <v>3.822085034059461</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.170830920556838</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.8890189018901892</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>0.4405</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>6.965</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1002,30 +1084,36 @@
         <v>1.932154866331891</v>
       </c>
       <c r="D14" t="n">
+        <v>3.864309732663783</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.165829521271796</v>
+      </c>
+      <c r="F14" t="n">
         <v>3.584439999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>0.4429999999999999</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>7.58</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1044,30 +1132,36 @@
         <v>2.003557029469136</v>
       </c>
       <c r="D15" t="n">
+        <v>4.007114058938273</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.18388325547485</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.353243247103861</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>0.4085</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>11.555</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(a1-1)']</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1086,30 +1180,36 @@
         <v>1.949153726363942</v>
       </c>
       <c r="D16" t="n">
+        <v>5.847461179091828</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.54254757044753</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.777466666666667</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>0.426</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>8.286666666666667</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['1C4', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1128,30 +1228,36 @@
         <v>1.531988642113932</v>
       </c>
       <c r="D17" t="n">
+        <v>3.063977284227864</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.574337792348361</v>
+      </c>
+      <c r="F17" t="n">
         <v>14.444325</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>0.4275</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>9.025</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)']</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1170,30 +1276,36 @@
         <v>1.709586069464573</v>
       </c>
       <c r="D18" t="n">
+        <v>3.419172138929145</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.955767986496258</v>
+      </c>
+      <c r="F18" t="n">
         <v>2.04002</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>0.503</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>6.745</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1212,30 +1324,36 @@
         <v>1.748473542829964</v>
       </c>
       <c r="D19" t="n">
+        <v>3.496947085659928</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.074553668654954</v>
+      </c>
+      <c r="F19" t="n">
         <v>3.7624</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>0.4415</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>6.245</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['1C4', '4C1']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-4)']</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal']</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1254,30 +1372,36 @@
         <v>2.039721836176354</v>
       </c>
       <c r="D20" t="n">
+        <v>6.11916550852906</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.772549263611866</v>
+      </c>
+      <c r="F20" t="n">
         <v>2.253066666666666</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>0.4276666666666666</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>3.53</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['1C4', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-4)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1296,30 +1420,36 @@
         <v>1.715696111725846</v>
       </c>
       <c r="D21" t="n">
+        <v>8.578480558629229</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.085399217281141</v>
+      </c>
+      <c r="F21" t="n">
         <v>13.15849333333333</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>0.4566</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>6.862</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['1C4', '4C1', '1C4', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-4)', 'Fuc(a1-2)', 'Gal(b1-4)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1338,30 +1468,36 @@
         <v>2.373156616242411</v>
       </c>
       <c r="D22" t="n">
+        <v>7.119469848727234</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.13128115550573</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.8197013631970137</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>0.447</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>5.036666666666666</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['1C4', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(a1-1)', 'GalNAc(a1-3)']</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1380,30 +1516,36 @@
         <v>1.983739511121613</v>
       </c>
       <c r="D23" t="n">
+        <v>5.951218533364838</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.973940888302121</v>
+      </c>
+      <c r="F23" t="n">
         <v>13.13647364736474</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>0.429</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>4.79</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['1C4', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)', 'GalNAc(a1-3)']</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1422,30 +1564,36 @@
         <v>1.925784818383869</v>
       </c>
       <c r="D24" t="n">
+        <v>5.777354455151607</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.032174824022514</v>
+      </c>
+      <c r="F24" t="n">
         <v>4.238844444444444</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>0.4373333333333334</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>6.436666666666667</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['1C4', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-3)', 'GalNAc(a1-3)']</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1464,30 +1612,36 @@
         <v>2.160739296058619</v>
       </c>
       <c r="D25" t="n">
+        <v>6.482217888175858</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.119731842208471</v>
+      </c>
+      <c r="F25" t="n">
         <v>2.750416625004166</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>0.445</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>6.613333333333333</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['1C4', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-4)', 'GalNAc(a1-3)']</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1506,30 +1660,36 @@
         <v>2.330934267401226</v>
       </c>
       <c r="D26" t="n">
+        <v>9.323737069604903</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.168148491175445</v>
+      </c>
+      <c r="F26" t="n">
         <v>3.478499300139973</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>0.44725</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>4.71</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>['1C4', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)', 'Gal(b1-4)', 'GalNAc(a1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>['Fuc(a1-2)Gal', 'GalNAc']</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1548,30 +1708,36 @@
         <v>2.924296789951471</v>
       </c>
       <c r="D27" t="n">
+        <v>2.924296789951471</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.924296789951471</v>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>0.458</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>11.53</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1590,30 +1756,36 @@
         <v>3.041646710200382</v>
       </c>
       <c r="D28" t="n">
+        <v>3.041646710200382</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.041646710200382</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.5310864419775312</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>0.431</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>2.49</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1632,30 +1804,36 @@
         <v>2.265804668686911</v>
       </c>
       <c r="D29" t="n">
+        <v>2.265804668686911</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.265804668686911</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.9357</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>0.437</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>12.38</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1674,30 +1852,36 @@
         <v>2.254148443376134</v>
       </c>
       <c r="D30" t="n">
+        <v>2.254148443376134</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.254148443376134</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.6847000000000001</v>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
         <v>0.454</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>5.51</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1716,30 +1900,36 @@
         <v>2.302631596004201</v>
       </c>
       <c r="D31" t="n">
+        <v>2.302631596004201</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.302631596004201</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.54725</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>0.491</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>5.54</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1758,30 +1948,36 @@
         <v>2.97796483037518</v>
       </c>
       <c r="D32" t="n">
+        <v>5.95592966075036</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.224058460398829</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.489065573223989</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>0.485</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>5.775</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>['4C1', '4C1']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>['GalNAc(a1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1800,30 +1996,36 @@
         <v>3.100918634996691</v>
       </c>
       <c r="D33" t="n">
+        <v>3.100918634996691</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.100918634996691</v>
+      </c>
+      <c r="F33" t="n">
         <v>3.38974</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
         <v>0.427</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>1.25</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>['GalNAc(b1-4)']</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -1842,30 +2044,36 @@
         <v>2.305444953997026</v>
       </c>
       <c r="D34" t="n">
+        <v>2.305444953997026</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.305444953997026</v>
+      </c>
+      <c r="F34" t="n">
         <v>2.5425</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
         <v>0.467</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>3.74</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1884,30 +2092,36 @@
         <v>2.811005603344966</v>
       </c>
       <c r="D35" t="n">
+        <v>2.811005603344966</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.811005603344966</v>
+      </c>
+      <c r="F35" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>0.395</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>9.91</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1926,30 +2140,36 @@
         <v>2.123525408676395</v>
       </c>
       <c r="D36" t="n">
+        <v>2.123525408676395</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.123525408676395</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.181698496816985</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>0.424</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -1968,30 +2188,36 @@
         <v>3.086745354861214</v>
       </c>
       <c r="D37" t="n">
+        <v>3.086745354861214</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.086745354861214</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.5</v>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
         <v>0.437</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>7.12</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2010,30 +2236,36 @@
         <v>2.882726071713295</v>
       </c>
       <c r="D38" t="n">
+        <v>2.882726071713295</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.882726071713295</v>
+      </c>
+      <c r="F38" t="n">
         <v>2.519119999999999</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>0.447</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>13.01</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2052,30 +2284,36 @@
         <v>2.515347223945951</v>
       </c>
       <c r="D39" t="n">
+        <v>2.515347223945951</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.515347223945951</v>
+      </c>
+      <c r="F39" t="n">
         <v>4.75844</v>
       </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
         <v>0.418</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>3.26</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2094,30 +2332,36 @@
         <v>1.965267323824594</v>
       </c>
       <c r="D40" t="n">
+        <v>1.965267323824594</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.965267323824594</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.712704603793713</v>
       </c>
-      <c r="E40" t="n">
+      <c r="G40" t="n">
         <v>0.45</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>4.3</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2136,30 +2380,36 @@
         <v>2.313004149460443</v>
       </c>
       <c r="D41" t="n">
+        <v>2.313004149460443</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.313004149460443</v>
+      </c>
+      <c r="F41" t="n">
         <v>9.2103</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>0.522</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>2.66</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2178,30 +2428,36 @@
         <v>2.736093849598977</v>
       </c>
       <c r="D42" t="n">
+        <v>2.736093849598977</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.736093849598977</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.79525</v>
       </c>
-      <c r="E42" t="n">
+      <c r="G42" t="n">
         <v>0.46</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>7.67</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2220,30 +2476,36 @@
         <v>2.155732876884809</v>
       </c>
       <c r="D43" t="n">
+        <v>2.155732876884809</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.155732876884809</v>
+      </c>
+      <c r="F43" t="n">
         <v>3.961833333333333</v>
       </c>
-      <c r="E43" t="n">
+      <c r="G43" t="n">
         <v>0.417</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>11.59</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2262,30 +2524,36 @@
         <v>3.068369033665478</v>
       </c>
       <c r="D44" t="n">
+        <v>3.068369033665478</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.068369033665478</v>
+      </c>
+      <c r="F44" t="n">
         <v>2.563019999999999</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>0.459</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>11.99</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2304,30 +2572,36 @@
         <v>2.199804871457699</v>
       </c>
       <c r="D45" t="n">
+        <v>2.199804871457699</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.199804871457699</v>
+      </c>
+      <c r="F45" t="n">
         <v>4.1392</v>
       </c>
-      <c r="E45" t="n">
+      <c r="G45" t="n">
         <v>0.416</v>
       </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
         <v>8.56</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2346,30 +2620,36 @@
         <v>2.234692268713575</v>
       </c>
       <c r="D46" t="n">
+        <v>2.234692268713575</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.234692268713575</v>
+      </c>
+      <c r="F46" t="n">
         <v>4.078340000000001</v>
       </c>
-      <c r="E46" t="n">
+      <c r="G46" t="n">
         <v>0.471</v>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>9.23</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2388,30 +2668,36 @@
         <v>2.179587502829705</v>
       </c>
       <c r="D47" t="n">
+        <v>2.179587502829705</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.179587502829705</v>
+      </c>
+      <c r="F47" t="n">
         <v>5.433503350335034</v>
       </c>
-      <c r="E47" t="n">
+      <c r="G47" t="n">
         <v>0.462</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>1.89</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2430,30 +2716,36 @@
         <v>2.755303798268773</v>
       </c>
       <c r="D48" t="n">
+        <v>2.755303798268773</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.755303798268773</v>
+      </c>
+      <c r="F48" t="n">
         <v>0.6960496049604961</v>
       </c>
-      <c r="E48" t="n">
+      <c r="G48" t="n">
         <v>0.419</v>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>4.44</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2472,30 +2764,36 @@
         <v>2.71534416929608</v>
       </c>
       <c r="D49" t="n">
+        <v>2.71534416929608</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.71534416929608</v>
+      </c>
+      <c r="F49" t="n">
         <v>3.482264893155983</v>
       </c>
-      <c r="E49" t="n">
+      <c r="G49" t="n">
         <v>0.481</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>4.76</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>['GalNAc(b1-4)']</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -2514,30 +2812,36 @@
         <v>2.895485410038187</v>
       </c>
       <c r="D50" t="n">
+        <v>2.895485410038187</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.895485410038187</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.8715871587158717</v>
       </c>
-      <c r="E50" t="n">
+      <c r="G50" t="n">
         <v>0.415</v>
       </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
         <v>10.16</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>['GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -2556,30 +2860,36 @@
         <v>2.664576180536996</v>
       </c>
       <c r="D51" t="n">
+        <v>2.664576180536996</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.664576180536996</v>
+      </c>
+      <c r="F51" t="n">
         <v>7.274647535246475</v>
       </c>
-      <c r="E51" t="n">
+      <c r="G51" t="n">
         <v>0.477</v>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>5.89</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>['GalNAc(b1-4)']</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -2598,30 +2908,36 @@
         <v>2.671783269639034</v>
       </c>
       <c r="D52" t="n">
+        <v>2.671783269639034</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.671783269639034</v>
+      </c>
+      <c r="F52" t="n">
         <v>5.64785</v>
       </c>
-      <c r="E52" t="n">
+      <c r="G52" t="n">
         <v>0.449</v>
       </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
         <v>6.26</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>['4C1']</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>['GalNAc(b1-4)']</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>['GalNAc']</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
